--- a/data/recentResults/combined/matchIds_set25_set100.xlsx
+++ b/data/recentResults/combined/matchIds_set25_set100.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="3260" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15620" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="100images" sheetId="1" r:id="rId1"/>
     <sheet name="25Images" sheetId="2" r:id="rId2"/>
     <sheet name="matchingIdsFrom100" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="135">
   <si>
     <t>thirdSetHundred_r2</t>
   </si>
@@ -421,6 +422,12 @@
   </si>
   <si>
     <t>ohsu-001-gb-6th-session-OD-posterior1.bmp</t>
+  </si>
+  <si>
+    <t>select25Id</t>
+  </si>
+  <si>
+    <t>imgName</t>
   </si>
 </sst>
 </file>
@@ -433,6 +440,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,8 +477,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,7 +515,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -512,6 +528,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -524,6 +544,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -861,6 +885,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2598,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2611,7 +2636,7 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>221</v>
       </c>
@@ -2650,8 +2675,11 @@
         <f>VLOOKUP(D2,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0020-gl-5th-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>222</v>
       </c>
@@ -2676,8 +2704,11 @@
         <f>VLOOKUP(D3,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0063-2-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>223</v>
       </c>
@@ -2702,8 +2733,11 @@
         <f>VLOOKUP(D4,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>corn-0018-3-od-posterior.bmp</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>224</v>
       </c>
@@ -2728,8 +2762,11 @@
         <f>VLOOKUP(D5,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-001-gb-6th-session-OD-posterior1.bmp</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>225</v>
       </c>
@@ -2754,8 +2791,11 @@
         <f>VLOOKUP(D6,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0021-cl-2nd-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>226</v>
       </c>
@@ -2780,8 +2820,11 @@
         <f>VLOOKUP(D7,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0011-mb-2nd-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>227</v>
       </c>
@@ -2806,8 +2849,11 @@
         <f>VLOOKUP(D8,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0029-ps-2nd-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>228</v>
       </c>
@@ -2832,8 +2878,11 @@
         <f>VLOOKUP(D9,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0060-3-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>229</v>
       </c>
@@ -2858,8 +2907,11 @@
         <f>VLOOKUP(D10,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>beau-0061-4-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>230</v>
       </c>
@@ -2884,8 +2936,11 @@
         <f>VLOOKUP(D11,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0030-ks-3rd-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>231</v>
       </c>
@@ -2910,8 +2965,11 @@
         <f>VLOOKUP(D12,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0063-3-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>232</v>
       </c>
@@ -2936,8 +2994,11 @@
         <f>VLOOKUP(D13,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0041-am-1st-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>233</v>
       </c>
@@ -2962,8 +3023,11 @@
         <f>VLOOKUP(D14,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>24-second-OS-temporal.bmp</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>234</v>
       </c>
@@ -2988,8 +3052,11 @@
         <f>VLOOKUP(D15,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0072-2-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>235</v>
       </c>
@@ -3014,8 +3081,11 @@
         <f>VLOOKUP(D16,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>miam-0018-4-os.BMP</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>236</v>
       </c>
@@ -3040,8 +3110,11 @@
         <f>VLOOKUP(D17,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0049-nv-14-OS-posterior2.bmp</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>237</v>
       </c>
@@ -3066,8 +3139,11 @@
         <f>VLOOKUP(D18,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>miam-0014-3-os.BMP</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>238</v>
       </c>
@@ -3092,8 +3168,11 @@
         <f>VLOOKUP(D19,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0031-cc-3rd-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>239</v>
       </c>
@@ -3118,8 +3197,11 @@
         <f>VLOOKUP(D20,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>4_Full.JPG</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>240</v>
       </c>
@@ -3144,8 +3226,11 @@
         <f>VLOOKUP(D21,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0054-5-os.bmp</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>241</v>
       </c>
@@ -3170,8 +3255,11 @@
         <f>VLOOKUP(D22,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>miam--0027-2-od.BMP</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>242</v>
       </c>
@@ -3196,8 +3284,11 @@
         <f>VLOOKUP(D23,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>miam-0018-5-od.BMP</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>243</v>
       </c>
@@ -3222,8 +3313,11 @@
         <f>VLOOKUP(D24,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0011-mb-1st-OD-posterior.bmp</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>244</v>
       </c>
@@ -3248,8 +3342,11 @@
         <f>VLOOKUP(D25,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0124-6-OS-posterior.bmp</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>245</v>
       </c>
@@ -3273,6 +3370,9 @@
       <c r="G26" t="str">
         <f>VLOOKUP(D26,'100images'!C$1:DE$101,1,FALSE)</f>
         <v>ohsu-0001-6-os-posterior2.bmp</v>
+      </c>
+      <c r="J26">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -5029,4 +5129,393 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>221</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>223</v>
+      </c>
+      <c r="D4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>224</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>226</v>
+      </c>
+      <c r="D7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>227</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>228</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>229</v>
+      </c>
+      <c r="D10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>230</v>
+      </c>
+      <c r="D11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>231</v>
+      </c>
+      <c r="D12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>233</v>
+      </c>
+      <c r="D14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>234</v>
+      </c>
+      <c r="D15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>235</v>
+      </c>
+      <c r="D16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>236</v>
+      </c>
+      <c r="D17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>237</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>238</v>
+      </c>
+      <c r="D19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>239</v>
+      </c>
+      <c r="D20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>241</v>
+      </c>
+      <c r="D22">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>242</v>
+      </c>
+      <c r="D23">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>243</v>
+      </c>
+      <c r="D24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>244</v>
+      </c>
+      <c r="D25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>245</v>
+      </c>
+      <c r="D26">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>